--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17-23</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>17-23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-33</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,31 +677,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>25-33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-28</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>25-28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,31 +1097,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16-25</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,52 +1196,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17-19</t>
+          <t>9-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>17-19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,20 +1346,50 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Landing gear lowered</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13-15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Please fly with caution</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>4-7</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -536,52 +536,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>17-23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17-23</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>25-33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,31 +677,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-33</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>25-28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-28</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,31 +1097,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16-25</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,52 +1196,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9-14</t>
+          <t>17-19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17-19</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,50 +1346,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4-7</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
